--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Voiceover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additionasl cost</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -77,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,6 +102,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -154,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,10 +178,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -262,21 +263,22 @@
   </sheetPr>
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="1.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="1.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,10 +297,10 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
@@ -311,11 +313,14 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="5"/>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
@@ -324,96 +329,104 @@
         <f aca="false">B2*500</f>
         <v>6000</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <f aca="false">B2*400</f>
         <v>4800</v>
       </c>
       <c r="E2" s="0" t="n">
-        <f aca="false">C2+D2</f>
-        <v>10800</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">SUM(E2:E5)</f>
-        <v>43200</v>
+        <v>2400</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">C2+D2+E2</f>
+        <v>13200</v>
       </c>
       <c r="H2" s="0" t="n">
-        <f aca="false">G2*0.015</f>
-        <v>648</v>
+        <f aca="false">SUM(F2:F5)</f>
+        <v>48000</v>
       </c>
       <c r="I2" s="0" t="n">
-        <f aca="false">G2+H2</f>
-        <v>43848</v>
+        <f aca="false">H2*0.015</f>
+        <v>720</v>
       </c>
       <c r="J2" s="0" t="n">
+        <f aca="false">H2+I2</f>
+        <v>48720</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>70500</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">J2-I2</f>
-        <v>26652</v>
+      <c r="L2" s="0" t="n">
+        <f aca="false">K2-J2</f>
+        <v>21780</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <f aca="false">B3*400</f>
         <v>4800</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <f aca="false">C3+D3</f>
-        <v>10800</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="E3" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">C3+D3+E3</f>
+        <v>13200</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">B4*500</f>
         <v>7000</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">B4*400</f>
         <v>5600</v>
       </c>
-      <c r="E4" s="6" t="n">
-        <f aca="false">C4+D4</f>
+      <c r="E4" s="5"/>
+      <c r="F4" s="0" t="n">
+        <f aca="false">C4+D4+E4</f>
         <v>12600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="5" t="n">
         <f aca="false">B5*500</f>
         <v>5000</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">B5*400</f>
         <v>4000</v>
       </c>
-      <c r="E5" s="6" t="n">
-        <f aca="false">C5+D5</f>
+      <c r="E5" s="5"/>
+      <c r="F5" s="0" t="n">
+        <f aca="false">C5+D5+E5</f>
         <v>9000</v>
       </c>
     </row>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
     <t xml:space="preserve"># A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># A4 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># A4 f</t>
   </si>
   <si>
     <t xml:space="preserve">Translate</t>
@@ -105,7 +111,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +130,12 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -159,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,7 +192,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,7 +257,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -264,21 +284,23 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:F5"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="1.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="1.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,13 +322,13 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
@@ -316,118 +338,143 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+      <c r="A2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <f aca="false">B2*500</f>
         <v>6000</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <f aca="false">B2*400</f>
-        <v>4800</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="6" t="n">
+        <f aca="false">(C2*500)+(D2*500)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>2400</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">C2+D2+E2</f>
-        <v>13200</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">SUM(F2:F5)</f>
-        <v>48000</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">H2*0.015</f>
-        <v>720</v>
+      <c r="H2" s="7" t="n">
+        <f aca="false">E2+F2+G2</f>
+        <v>8400</v>
       </c>
       <c r="J2" s="0" t="n">
-        <f aca="false">H2+I2</f>
-        <v>48720</v>
+        <f aca="false">SUM(H2:H5)</f>
+        <v>46800</v>
       </c>
       <c r="K2" s="0" t="n">
+        <f aca="false">J2*0.015</f>
+        <v>702</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">J2+K2</f>
+        <v>47502</v>
+      </c>
+      <c r="M2" s="0" t="n">
         <v>70500</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <f aca="false">K2-J2</f>
-        <v>21780</v>
+      <c r="N2" s="0" t="n">
+        <f aca="false">M2-L2</f>
+        <v>22998</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">B3*400</f>
-        <v>4800</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="6" t="n">
+        <f aca="false">(C3*500)+(D3*500)</f>
+        <v>6000</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>2400</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">C3+D3+E3</f>
-        <v>13200</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="0" t="n">
+        <f aca="false">E3+F3+G3</f>
+        <v>14400</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <f aca="false">B4*500</f>
         <v>7000</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <f aca="false">B4*400</f>
-        <v>5600</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="0" t="n">
-        <f aca="false">C4+D4+E4</f>
-        <v>12600</v>
+      <c r="F4" s="6" t="n">
+        <f aca="false">(C4*500)+(D4*500)</f>
+        <v>7000</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="0" t="n">
+        <f aca="false">E4+F4+G4</f>
+        <v>14000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <f aca="false">B5*500</f>
         <v>5000</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <f aca="false">B5*400</f>
-        <v>4000</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="0" t="n">
-        <f aca="false">C5+D5+E5</f>
-        <v>9000</v>
+      <c r="F5" s="6" t="n">
+        <f aca="false">(C5*500)+(D5*500)</f>
+        <v>5000</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="0" t="n">
+        <f aca="false">E5+F5+G5</f>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -196,11 +196,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,10 +284,10 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -354,7 +354,7 @@
       <c r="B2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="6" t="n">
         <f aca="false">B2*500</f>
         <v>6000</v>
       </c>
@@ -362,31 +362,31 @@
         <f aca="false">(C2*500)+(D2*500)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="6" t="n">
         <v>2400</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="6" t="n">
         <f aca="false">E2+F2+G2</f>
         <v>8400</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">SUM(H2:H5)</f>
-        <v>46800</v>
+        <v>49200</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">J2*0.015</f>
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">J2+K2</f>
-        <v>47502</v>
+        <v>49938</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>70500</v>
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">M2-L2</f>
-        <v>22998</v>
+        <v>20562</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,11 +406,11 @@
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <f aca="false">(C3*500)+(D3*500)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="6" t="n">
         <v>2400</v>
       </c>
       <c r="H3" s="0" t="n">
@@ -440,14 +440,16 @@
         <f aca="false">B4*500</f>
         <v>7000</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
         <v>7000</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="n">
+        <v>2400</v>
+      </c>
       <c r="H4" s="0" t="n">
         <f aca="false">E4+F4+G4</f>
-        <v>14000</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,15 +465,15 @@
       <c r="D5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <f aca="false">B5*500</f>
         <v>5000</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <f aca="false">(C5*500)+(D5*500)</f>
         <v>5000</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="0" t="n">
         <f aca="false">E5+F5+G5</f>
         <v>10000</v>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yargi 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yargi 3</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>
@@ -111,7 +114,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +139,12 @@
         <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -171,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +206,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,7 +275,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -281,13 +298,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -370,23 +387,23 @@
         <v>8400</v>
       </c>
       <c r="J2" s="0" t="n">
-        <f aca="false">SUM(H2:H5)</f>
-        <v>49200</v>
+        <f aca="false">SUM(H2:H6)</f>
+        <v>64800</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">J2*0.015</f>
-        <v>738</v>
+        <v>972</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">J2+K2</f>
-        <v>49938</v>
+        <v>65772</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>70500</v>
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">M2-L2</f>
-        <v>20562</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,54 +445,88 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="n">
+      <c r="D4" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="n">
         <f aca="false">B4*500</f>
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="F4" s="7" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
-        <v>7000</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>2400</v>
+        <v>6500</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>2600</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">E4+F4+G4</f>
-        <v>16400</v>
-      </c>
+        <v>15600</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <f aca="false">B5*500</f>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F5" s="7" t="n">
         <f aca="false">(C5*500)+(D5*500)</f>
-        <v>5000</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>7000</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>2400</v>
+      </c>
       <c r="H5" s="0" t="n">
         <f aca="false">E5+F5+G5</f>
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">B6*500</f>
+        <v>5000</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">(C6*500)+(D6*500)</f>
+        <v>5000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="0" t="n">
+        <f aca="false">E6+F6+G6</f>
         <v>10000</v>
       </c>
     </row>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Voiceover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montaj</t>
   </si>
   <si>
     <t xml:space="preserve">Additionasl cost</t>
@@ -180,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,7 +204,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,15 +212,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,10 +312,10 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -312,12 +323,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="1.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="1.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,10 +356,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
@@ -361,12 +372,14 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AMI1" s="0"/>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
@@ -375,40 +388,43 @@
         <f aca="false">B2*500</f>
         <v>6000</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <f aca="false">(C2*500)+(D2*500)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="F2" s="7" t="n">
+        <v>11376</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <f aca="false">B2*500</f>
+        <v>6000</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <v>2400</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <f aca="false">E2+F2+G2</f>
-        <v>8400</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">SUM(H2:H6)</f>
-        <v>64800</v>
+      <c r="I2" s="9" t="n">
+        <f aca="false">E2+F2+G2+H2</f>
+        <v>25776</v>
       </c>
       <c r="K2" s="0" t="n">
-        <f aca="false">J2*0.015</f>
-        <v>972</v>
+        <f aca="false">SUM(I2:I6)</f>
+        <v>106676</v>
       </c>
       <c r="L2" s="0" t="n">
-        <f aca="false">J2+K2</f>
-        <v>65772</v>
+        <f aca="false">K2*0.015</f>
+        <v>1600.14</v>
       </c>
       <c r="M2" s="0" t="n">
+        <f aca="false">K2+L2</f>
+        <v>108276.14</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>70500</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <f aca="false">M2-L2</f>
-        <v>4728</v>
+      <c r="O2" s="0" t="n">
+        <f aca="false">N2-M2</f>
+        <v>-37776.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12</v>
@@ -423,60 +439,68 @@
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <f aca="false">(C3*500)+(D3*500)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="8" t="n">
+        <f aca="false">B3*500</f>
+        <v>6000</v>
+      </c>
+      <c r="H3" s="6" t="n">
         <v>2400</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">E3+F3+G3</f>
-        <v>14400</v>
-      </c>
-      <c r="J3" s="2"/>
+      <c r="I3" s="9" t="n">
+        <f aca="false">E3+F3+G3+H3</f>
+        <v>20400</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
         <v>6500</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="8" t="n">
+        <f aca="false">B4*500</f>
+        <v>6500</v>
+      </c>
+      <c r="H4" s="8" t="n">
         <v>2600</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">E4+F4+G4</f>
-        <v>15600</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="I4" s="9" t="n">
+        <f aca="false">E4+F4+G4+H4</f>
+        <v>22100</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>14</v>
@@ -491,43 +515,51 @@
         <f aca="false">B5*500</f>
         <v>7000</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <f aca="false">(C5*500)+(D5*500)</f>
         <v>7000</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="8" t="n">
+        <f aca="false">B5*500</f>
+        <v>7000</v>
+      </c>
+      <c r="H5" s="6" t="n">
         <v>2400</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">E5+F5+G5</f>
-        <v>16400</v>
+      <c r="I5" s="9" t="n">
+        <f aca="false">E5+F5+G5+H5</f>
+        <v>23400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="8" t="n">
         <f aca="false">(C6*500)+(D6*500)</f>
         <v>5000</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="0" t="n">
-        <f aca="false">E6+F6+G6</f>
-        <v>10000</v>
+      <c r="G6" s="8" t="n">
+        <f aca="false">B6*500</f>
+        <v>5000</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9" t="n">
+        <f aca="false">E6+F6+G6+H6</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Montaj</t>
   </si>
   <si>
-    <t xml:space="preserve">Additionasl cost</t>
+    <t xml:space="preserve">Editorial</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Magnificent Century 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braveheart</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,14 +224,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,13 +304,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -396,6 +391,7 @@
         <v>6000</v>
       </c>
       <c r="H2" s="6" t="n">
+        <f aca="false">B2*200</f>
         <v>2400</v>
       </c>
       <c r="I2" s="9" t="n">
@@ -404,22 +400,22 @@
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">SUM(I2:I6)</f>
-        <v>106676</v>
+        <v>109076</v>
       </c>
       <c r="L2" s="0" t="n">
         <f aca="false">K2*0.015</f>
-        <v>1600.14</v>
+        <v>1636.14</v>
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">K2+L2</f>
-        <v>108276.14</v>
+        <v>110712.14</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>70500</v>
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">N2-M2</f>
-        <v>-37776.14</v>
+        <v>-40212.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,6 +444,7 @@
         <v>6000</v>
       </c>
       <c r="H3" s="6" t="n">
+        <f aca="false">B3*200</f>
         <v>2400</v>
       </c>
       <c r="I3" s="9" t="n">
@@ -467,10 +464,10 @@
       <c r="B4" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E4" s="8" t="n">
@@ -485,7 +482,8 @@
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="6" t="n">
+        <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
       <c r="I4" s="9" t="n">
@@ -524,11 +522,12 @@
         <v>7000</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2400</v>
+        <f aca="false">B5*200</f>
+        <v>2800</v>
       </c>
       <c r="I5" s="9" t="n">
         <f aca="false">E5+F5+G5+H5</f>
-        <v>23400</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,10 +537,10 @@
       <c r="B6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E6" s="8" t="n">
@@ -556,10 +555,47 @@
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="6" t="n">
+        <f aca="false">B6*200</f>
+        <v>2000</v>
+      </c>
       <c r="I6" s="9" t="n">
         <f aca="false">E6+F6+G6+H6</f>
-        <v>15000</v>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <f aca="false">B7*500</f>
+        <v>5000</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <f aca="false">(C7*500)+(D7*500)</f>
+        <v>5000</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <f aca="false">B7*500</f>
+        <v>5000</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">B7*200</f>
+        <v>2000</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <f aca="false">E7+F7+G7+H7</f>
+        <v>17000</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -219,11 +219,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,10 +307,10 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1:H7"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -386,7 +386,7 @@
       <c r="F2" s="7" t="n">
         <v>11376</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="6" t="n">
         <f aca="false">B2*500</f>
         <v>6000</v>
       </c>
@@ -394,7 +394,7 @@
         <f aca="false">B2*200</f>
         <v>2400</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="8" t="n">
         <f aca="false">E2+F2+G2+H2</f>
         <v>25776</v>
       </c>
@@ -435,11 +435,11 @@
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <f aca="false">(C3*500)+(D3*500)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="9" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
@@ -447,7 +447,7 @@
         <f aca="false">B3*200</f>
         <v>2400</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="8" t="n">
         <f aca="false">E3+F3+G3+H3</f>
         <v>20400</v>
       </c>
@@ -470,15 +470,15 @@
       <c r="D4" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
         <v>6500</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="9" t="n">
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
@@ -486,7 +486,7 @@
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="8" t="n">
         <f aca="false">E4+F4+G4+H4</f>
         <v>22100</v>
       </c>
@@ -513,11 +513,11 @@
         <f aca="false">B5*500</f>
         <v>7000</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <f aca="false">(C5*500)+(D5*500)</f>
         <v>7000</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="9" t="n">
         <f aca="false">B5*500</f>
         <v>7000</v>
       </c>
@@ -525,7 +525,7 @@
         <f aca="false">B5*200</f>
         <v>2800</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="8" t="n">
         <f aca="false">E5+F5+G5+H5</f>
         <v>23800</v>
       </c>
@@ -543,15 +543,15 @@
       <c r="D6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="9" t="n">
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="9" t="n">
         <f aca="false">(C6*500)+(D6*500)</f>
         <v>5000</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="9" t="n">
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
@@ -559,7 +559,7 @@
         <f aca="false">B6*200</f>
         <v>2000</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="8" t="n">
         <f aca="false">E6+F6+G6+H6</f>
         <v>17000</v>
       </c>
@@ -577,15 +577,15 @@
       <c r="D7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="9" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9" t="n">
         <f aca="false">(C7*500)+(D7*500)</f>
         <v>5000</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="9" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
@@ -593,7 +593,7 @@
         <f aca="false">B7*200</f>
         <v>2000</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="8" t="n">
         <f aca="false">E7+F7+G7+H7</f>
         <v>17000</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -304,13 +307,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -319,11 +322,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="1.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="1.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,10 +358,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
@@ -370,11 +374,13 @@
       <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
@@ -394,33 +400,34 @@
         <f aca="false">B2*200</f>
         <v>2400</v>
       </c>
-      <c r="I2" s="8" t="n">
-        <f aca="false">E2+F2+G2+H2</f>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8" t="n">
+        <f aca="false">E2+F2+G2+H2+I2</f>
         <v>25776</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">SUM(I2:I6)</f>
-        <v>109076</v>
-      </c>
       <c r="L2" s="0" t="n">
-        <f aca="false">K2*0.015</f>
-        <v>1636.14</v>
+        <f aca="false">SUM(J2:J6)</f>
+        <v>110076</v>
       </c>
       <c r="M2" s="0" t="n">
-        <f aca="false">K2+L2</f>
-        <v>110712.14</v>
+        <f aca="false">L2*0.015</f>
+        <v>1651.14</v>
       </c>
       <c r="N2" s="0" t="n">
+        <f aca="false">L2+M2</f>
+        <v>111727.14</v>
+      </c>
+      <c r="O2" s="0" t="n">
         <v>70500</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <f aca="false">N2-M2</f>
-        <v>-40212.14</v>
+      <c r="P2" s="0" t="n">
+        <f aca="false">O2-N2</f>
+        <v>-41227.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12</v>
@@ -447,19 +454,22 @@
         <f aca="false">B3*200</f>
         <v>2400</v>
       </c>
-      <c r="I3" s="8" t="n">
-        <f aca="false">E3+F3+G3+H3</f>
-        <v>20400</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="I3" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <f aca="false">E3+F3+G3+H3+I3</f>
+        <v>21400</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>13</v>
@@ -486,19 +496,20 @@
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="I4" s="8" t="n">
-        <f aca="false">E4+F4+G4+H4</f>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8" t="n">
+        <f aca="false">E4+F4+G4+H4+I4</f>
         <v>22100</v>
       </c>
-      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>14</v>
@@ -525,14 +536,15 @@
         <f aca="false">B5*200</f>
         <v>2800</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <f aca="false">E5+F5+G5+H5</f>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8" t="n">
+        <f aca="false">E5+F5+G5+H5+I5</f>
         <v>23800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
@@ -559,14 +571,15 @@
         <f aca="false">B6*200</f>
         <v>2000</v>
       </c>
-      <c r="I6" s="8" t="n">
-        <f aca="false">E6+F6+G6+H6</f>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8" t="n">
+        <f aca="false">E6+F6+G6+H6+I6</f>
         <v>17000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10</v>
@@ -593,8 +606,9 @@
         <f aca="false">B7*200</f>
         <v>2000</v>
       </c>
-      <c r="I7" s="8" t="n">
-        <f aca="false">E7+F7+G7+H7</f>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8" t="n">
+        <f aca="false">E7+F7+G7+H7+I7</f>
         <v>17000</v>
       </c>
     </row>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Braveheart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gandi</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +153,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -189,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,6 +232,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,7 +307,7 @@
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
@@ -307,13 +328,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -322,7 +343,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="1.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.53"/>
@@ -432,21 +453,21 @@
       <c r="B3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="10" t="n">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <f aca="false">(C3*500)+(D3*500)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="12" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
@@ -480,15 +501,15 @@
       <c r="D4" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="6" t="n">
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="12" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
         <v>6500</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="12" t="n">
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
@@ -524,11 +545,11 @@
         <f aca="false">B5*500</f>
         <v>7000</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="12" t="n">
         <f aca="false">(C5*500)+(D5*500)</f>
         <v>7000</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="12" t="n">
         <f aca="false">B5*500</f>
         <v>7000</v>
       </c>
@@ -555,15 +576,15 @@
       <c r="D6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="12" t="n">
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="12" t="n">
         <f aca="false">(C6*500)+(D6*500)</f>
         <v>5000</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="12" t="n">
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
@@ -590,15 +611,15 @@
       <c r="D7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="12" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="12" t="n">
         <f aca="false">(C7*500)+(D7*500)</f>
         <v>5000</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="12" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
@@ -610,6 +631,11 @@
       <c r="J7" s="8" t="n">
         <f aca="false">E7+F7+G7+H7+I7</f>
         <v>17000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -198,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,27 +227,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,10 +335,10 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -421,8 +425,8 @@
         <f aca="false">B2*200</f>
         <v>2400</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8" t="n">
+      <c r="I2" s="8"/>
+      <c r="J2" s="6" t="n">
         <f aca="false">E2+F2+G2+H2+I2</f>
         <v>25776</v>
       </c>
@@ -478,7 +482,7 @@
       <c r="I3" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="13" t="n">
         <f aca="false">E3+F3+G3+H3+I3</f>
         <v>21400</v>
       </c>
@@ -513,12 +517,12 @@
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="12" t="n">
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8" t="n">
+      <c r="I4" s="8"/>
+      <c r="J4" s="13" t="n">
         <f aca="false">E4+F4+G4+H4+I4</f>
         <v>22100</v>
       </c>
@@ -557,8 +561,8 @@
         <f aca="false">B5*200</f>
         <v>2800</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="8"/>
+      <c r="J5" s="13" t="n">
         <f aca="false">E5+F5+G5+H5+I5</f>
         <v>23800</v>
       </c>
@@ -588,12 +592,12 @@
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="12" t="n">
         <f aca="false">B6*200</f>
         <v>2000</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8" t="n">
+      <c r="I6" s="8"/>
+      <c r="J6" s="13" t="n">
         <f aca="false">E6+F6+G6+H6+I6</f>
         <v>17000</v>
       </c>
@@ -623,12 +627,12 @@
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="12" t="n">
         <f aca="false">B7*200</f>
         <v>2000</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="8"/>
+      <c r="J7" s="13" t="n">
         <f aca="false">E7+F7+G7+H7+I7</f>
         <v>17000</v>
       </c>
@@ -636,6 +640,35 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <f aca="false">B8*500</f>
+        <v>10000</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <f aca="false">(C8*500)+(D8*500)</f>
+        <v>10000</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <f aca="false">B8*500</f>
+        <v>10000</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <f aca="false">B8*200</f>
+        <v>4000</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <f aca="false">E8+F8+G8+H8+I8</f>
+        <v>34000</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -126,7 +126,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +157,6 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -198,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,18 +226,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,7 +291,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
@@ -335,10 +317,10 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -425,7 +407,6 @@
         <f aca="false">B2*200</f>
         <v>2400</v>
       </c>
-      <c r="I2" s="8"/>
       <c r="J2" s="6" t="n">
         <f aca="false">E2+F2+G2+H2+I2</f>
         <v>25776</v>
@@ -457,21 +438,21 @@
       <c r="B3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="6" t="n">
         <f aca="false">(C3*500)+(D3*500)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="9" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
@@ -482,7 +463,7 @@
       <c r="I3" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="10" t="n">
         <f aca="false">E3+F3+G3+H3+I3</f>
         <v>21400</v>
       </c>
@@ -509,20 +490,19 @@
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="9" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
         <v>6500</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="9" t="n">
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="6" t="n">
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="false">E4+F4+G4+H4+I4</f>
         <v>22100</v>
       </c>
@@ -549,11 +529,11 @@
         <f aca="false">B5*500</f>
         <v>7000</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="9" t="n">
         <f aca="false">(C5*500)+(D5*500)</f>
         <v>7000</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="9" t="n">
         <f aca="false">B5*500</f>
         <v>7000</v>
       </c>
@@ -561,8 +541,7 @@
         <f aca="false">B5*200</f>
         <v>2800</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13" t="n">
+      <c r="J5" s="10" t="n">
         <f aca="false">E5+F5+G5+H5+I5</f>
         <v>23800</v>
       </c>
@@ -580,24 +559,23 @@
       <c r="D6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="9" t="n">
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="9" t="n">
         <f aca="false">(C6*500)+(D6*500)</f>
         <v>5000</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="9" t="n">
         <f aca="false">B6*500</f>
         <v>5000</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="9" t="n">
         <f aca="false">B6*200</f>
         <v>2000</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="10" t="n">
         <f aca="false">E6+F6+G6+H6+I6</f>
         <v>17000</v>
       </c>
@@ -615,24 +593,23 @@
       <c r="D7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="9" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="9" t="n">
         <f aca="false">(C7*500)+(D7*500)</f>
         <v>5000</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="9" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="9" t="n">
         <f aca="false">B7*200</f>
         <v>2000</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="10" t="n">
         <f aca="false">E7+F7+G7+H7+I7</f>
         <v>17000</v>
       </c>
@@ -650,23 +627,23 @@
       <c r="D8" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="9" t="n">
         <f aca="false">B8*500</f>
         <v>10000</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="9" t="n">
         <f aca="false">(C8*500)+(D8*500)</f>
         <v>10000</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="9" t="n">
         <f aca="false">B8*500</f>
         <v>10000</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="9" t="n">
         <f aca="false">B8*200</f>
         <v>4000</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="10" t="n">
         <f aca="false">E8+F8+G8+H8+I8</f>
         <v>34000</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yargi 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yargi 4</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>
@@ -192,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,10 +225,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,13 +313,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -412,7 +411,7 @@
         <v>25776</v>
       </c>
       <c r="L2" s="0" t="n">
-        <f aca="false">SUM(J2:J6)</f>
+        <f aca="false">SUM(J2:J7)</f>
         <v>110076</v>
       </c>
       <c r="M2" s="0" t="n">
@@ -438,10 +437,10 @@
       <c r="B3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="n">
@@ -452,7 +451,7 @@
         <f aca="false">(C3*500)+(D3*500)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="8" t="n">
         <f aca="false">B3*500</f>
         <v>6000</v>
       </c>
@@ -463,7 +462,7 @@
       <c r="I3" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="9" t="n">
         <f aca="false">E3+F3+G3+H3+I3</f>
         <v>21400</v>
       </c>
@@ -490,11 +489,11 @@
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="8" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
         <v>6500</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="8" t="n">
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
@@ -502,7 +501,7 @@
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="9" t="n">
         <f aca="false">E4+F4+G4+H4+I4</f>
         <v>22100</v>
       </c>
@@ -516,68 +515,49 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <f aca="false">B5*500</f>
-        <v>7000</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <f aca="false">(C5*500)+(D5*500)</f>
-        <v>7000</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <f aca="false">B5*500</f>
-        <v>7000</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <f aca="false">B5*200</f>
-        <v>2800</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <f aca="false">E5+F5+G5+H5+I5</f>
-        <v>23800</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <f aca="false">B6*500</f>
-        <v>5000</v>
-      </c>
-      <c r="F6" s="9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <f aca="false">(C6*500)+(D6*500)</f>
-        <v>5000</v>
-      </c>
-      <c r="G6" s="9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G6" s="8" t="n">
         <f aca="false">B6*500</f>
-        <v>5000</v>
-      </c>
-      <c r="H6" s="9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H6" s="6" t="n">
         <f aca="false">B6*200</f>
-        <v>2000</v>
-      </c>
-      <c r="J6" s="10" t="n">
+        <v>2800</v>
+      </c>
+      <c r="J6" s="9" t="n">
         <f aca="false">E6+F6+G6+H6+I6</f>
-        <v>17000</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,23 +573,23 @@
       <c r="D7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="8" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="8" t="n">
         <f aca="false">(C7*500)+(D7*500)</f>
         <v>5000</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="8" t="n">
         <f aca="false">B7*500</f>
         <v>5000</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="8" t="n">
         <f aca="false">B7*200</f>
         <v>2000</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="9" t="n">
         <f aca="false">E7+F7+G7+H7+I7</f>
         <v>17000</v>
       </c>
@@ -619,32 +599,66 @@
         <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <f aca="false">B8*500</f>
+        <v>5000</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <f aca="false">(C8*500)+(D8*500)</f>
+        <v>5000</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <f aca="false">B8*500</f>
+        <v>5000</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <f aca="false">B8*200</f>
+        <v>2000</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <f aca="false">E8+F8+G8+H8+I8</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="n">
-        <f aca="false">B8*500</f>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <f aca="false">B9*500</f>
         <v>10000</v>
       </c>
-      <c r="F8" s="9" t="n">
-        <f aca="false">(C8*500)+(D8*500)</f>
+      <c r="F9" s="8" t="n">
+        <f aca="false">(C9*500)+(D9*500)</f>
         <v>10000</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">B8*500</f>
+      <c r="G9" s="8" t="n">
+        <f aca="false">B9*500</f>
         <v>10000</v>
       </c>
-      <c r="H8" s="9" t="n">
-        <f aca="false">B8*200</f>
+      <c r="H9" s="8" t="n">
+        <f aca="false">B9*200</f>
         <v>4000</v>
       </c>
-      <c r="J8" s="10" t="n">
-        <f aca="false">E8+F8+G8+H8+I8</f>
+      <c r="J9" s="9" t="n">
+        <f aca="false">E9+F9+G9+H9+I9</f>
         <v>34000</v>
       </c>
     </row>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yargi 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 + 1500 + ?</t>
   </si>
   <si>
     <t xml:space="preserve">Yargi 3</t>
@@ -99,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,8 +131,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +170,12 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -195,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,6 +245,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,7 +310,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
@@ -316,10 +336,10 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -410,24 +430,24 @@
         <f aca="false">E2+F2+G2+H2+I2</f>
         <v>25776</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="0" t="e">
         <f aca="false">SUM(J2:J7)</f>
-        <v>110076</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" s="0" t="e">
         <f aca="false">L2*0.015</f>
-        <v>1651.14</v>
-      </c>
-      <c r="N2" s="0" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2" s="0" t="e">
         <f aca="false">L2+M2</f>
-        <v>111727.14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>70500</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="0" t="e">
         <f aca="false">O2-N2</f>
-        <v>-41227.14</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,12 +479,12 @@
         <f aca="false">B3*200</f>
         <v>2400</v>
       </c>
-      <c r="I3" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="10" t="e">
         <f aca="false">E3+F3+G3+H3+I3</f>
-        <v>21400</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -474,7 +494,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>13</v>
@@ -501,7 +521,7 @@
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="false">E4+F4+G4+H4+I4</f>
         <v>22100</v>
       </c>
@@ -513,13 +533,37 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="J5" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <f aca="false">B5*500</f>
+        <v>8000</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <f aca="false">(C5*500)+(D5*500)</f>
+        <v>8000</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <f aca="false">B5*500</f>
+        <v>8000</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <f aca="false">B5*200</f>
+        <v>3200</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <f aca="false">E5+F5+G5+H5+I5</f>
+        <v>27200</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -528,7 +572,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>14</v>
@@ -555,14 +599,14 @@
         <f aca="false">B6*200</f>
         <v>2800</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="10" t="n">
         <f aca="false">E6+F6+G6+H6+I6</f>
         <v>23800</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>10</v>
@@ -589,14 +633,14 @@
         <f aca="false">B7*200</f>
         <v>2000</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="10" t="n">
         <f aca="false">E7+F7+G7+H7+I7</f>
         <v>17000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>10</v>
@@ -623,14 +667,14 @@
         <f aca="false">B8*200</f>
         <v>2000</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="10" t="n">
         <f aca="false">E8+F8+G8+H8+I8</f>
         <v>17000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>20</v>
@@ -657,7 +701,7 @@
         <f aca="false">B9*200</f>
         <v>4000</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="10" t="n">
         <f aca="false">E9+F9+G9+H9+I9</f>
         <v>34000</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -336,10 +336,10 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -544,7 +544,7 @@
       <c r="D5" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="6" t="n">
         <f aca="false">B5*500</f>
         <v>8000</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -25,13 +25,13 @@
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve"># A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># A4 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># A4 f</t>
+    <t xml:space="preserve"># A4 ru,tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># A4 m ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># A4 f ab</t>
   </si>
   <si>
     <t xml:space="preserve">Translate</t>
@@ -336,19 +336,20 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="1.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.53"/>
@@ -500,10 +501,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="n">
         <f aca="false">B4*500</f>
@@ -511,7 +512,7 @@
       </c>
       <c r="F4" s="8" t="n">
         <f aca="false">(C4*500)+(D4*500)</f>
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="G4" s="8" t="n">
         <f aca="false">B4*500</f>
@@ -523,7 +524,7 @@
       </c>
       <c r="J4" s="10" t="n">
         <f aca="false">E4+F4+G4+H4+I4</f>
-        <v>22100</v>
+        <v>22600</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -542,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6" t="n">
         <f aca="false">B5*500</f>
@@ -550,7 +551,7 @@
       </c>
       <c r="F5" s="8" t="n">
         <f aca="false">(C5*500)+(D5*500)</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8" t="n">
         <f aca="false">B5*500</f>
@@ -562,7 +563,7 @@
       </c>
       <c r="J5" s="10" t="n">
         <f aca="false">E5+F5+G5+H5+I5</f>
-        <v>27200</v>
+        <v>19200</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -615,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">B7*500</f>
@@ -623,7 +624,7 @@
       </c>
       <c r="F7" s="8" t="n">
         <f aca="false">(C7*500)+(D7*500)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="n">
         <f aca="false">B7*500</f>
@@ -635,7 +636,7 @@
       </c>
       <c r="J7" s="10" t="n">
         <f aca="false">E7+F7+G7+H7+I7</f>
-        <v>17000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="n">
         <f aca="false">B8*500</f>
@@ -657,7 +658,7 @@
       </c>
       <c r="F8" s="8" t="n">
         <f aca="false">(C8*500)+(D8*500)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8" t="n">
         <f aca="false">B8*500</f>
@@ -669,7 +670,7 @@
       </c>
       <c r="J8" s="10" t="n">
         <f aca="false">E8+F8+G8+H8+I8</f>
-        <v>17000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8" t="n">
         <f aca="false">B9*500</f>
@@ -691,7 +692,7 @@
       </c>
       <c r="F9" s="8" t="n">
         <f aca="false">(C9*500)+(D9*500)</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8" t="n">
         <f aca="false">B9*500</f>
@@ -703,7 +704,7 @@
       </c>
       <c r="J9" s="10" t="n">
         <f aca="false">E9+F9+G9+H9+I9</f>
-        <v>34000</v>
+        <v>24000</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Yargi 2</t>
   </si>
   <si>
-    <t xml:space="preserve">1000 + 1500 + ?</t>
+    <t xml:space="preserve">2500 + ?</t>
   </si>
   <si>
     <t xml:space="preserve">Yargi 3</t>
@@ -336,16 +336,16 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.89"/>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -37,7 +37,10 @@
     <t xml:space="preserve">Translate</t>
   </si>
   <si>
-    <t xml:space="preserve">Voiceover</t>
+    <t xml:space="preserve">Voiceover f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voiceover m</t>
   </si>
   <si>
     <t xml:space="preserve">Montaj</t>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yargi 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2500 + ?</t>
   </si>
   <si>
     <t xml:space="preserve">Yargi 3</t>
@@ -139,7 +139,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +170,6 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -211,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,15 +238,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,7 +320,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
@@ -333,28 +343,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="1.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="1.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,10 +398,10 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
@@ -404,10 +414,13 @@
       <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
@@ -416,44 +429,47 @@
         <f aca="false">B2*500</f>
         <v>6000</v>
       </c>
-      <c r="F2" s="7" t="n">
-        <v>11376</v>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="F2" s="6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>7376</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <f aca="false">B2*500</f>
         <v>6000</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">B2*200</f>
         <v>2400</v>
       </c>
-      <c r="J2" s="6" t="n">
-        <f aca="false">E2+F2+G2+H2+I2</f>
-        <v>25776</v>
-      </c>
-      <c r="L2" s="0" t="e">
-        <f aca="false">SUM(J2:J7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M2" s="0" t="e">
-        <f aca="false">L2*0.015</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N2" s="0" t="e">
-        <f aca="false">L2+M2</f>
-        <v>#VALUE!</v>
+      <c r="K2" s="6" t="n">
+        <f aca="false">E2+G2+H2+I2+J2</f>
+        <v>21776</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">SUM(K2:K8)</f>
+        <v>117576</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">M2*0.015</f>
+        <v>1763.64</v>
       </c>
       <c r="O2" s="0" t="n">
+        <f aca="false">M2+N2</f>
+        <v>119339.64</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>70500</v>
       </c>
-      <c r="P2" s="0" t="e">
-        <f aca="false">O2-N2</f>
-        <v>#VALUE!</v>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">P2-O2</f>
+        <v>-48839.64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12</v>
@@ -469,29 +485,30 @@
         <v>6000</v>
       </c>
       <c r="F3" s="6" t="n">
-        <f aca="false">(C3*500)+(D3*500)</f>
-        <v>6000</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">B3*500</f>
-        <v>6000</v>
-      </c>
-      <c r="H3" s="6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <f aca="false">B3*200</f>
         <v>2400</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="10" t="e">
-        <f aca="false">E3+F3+G3+H3+I3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="J3" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <f aca="false">E3+G3+H3+I3+J3</f>
+        <v>17900</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -511,26 +528,27 @@
         <v>6500</v>
       </c>
       <c r="F4" s="8" t="n">
-        <f aca="false">(C4*500)+(D4*500)</f>
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G4" s="8" t="n">
-        <f aca="false">B4*500</f>
-        <v>6500</v>
-      </c>
-      <c r="H4" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="J4" s="10" t="n">
-        <f aca="false">E4+F4+G4+H4+I4</f>
-        <v>22600</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="K4" s="10" t="n">
+        <f aca="false">E4+G4+H4+I4+J4</f>
+        <v>19100</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -550,98 +568,74 @@
         <v>8000</v>
       </c>
       <c r="F5" s="8" t="n">
-        <f aca="false">(C5*500)+(D5*500)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="8" t="n">
-        <f aca="false">B5*500</f>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="8" t="n">
-        <f aca="false">B5*200</f>
-        <v>3200</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <f aca="false">E5+F5+G5+H5+I5</f>
-        <v>19200</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <f aca="false">E5+G5+H5+I5+J5</f>
+        <v>23000</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <f aca="false">B6*500</f>
-        <v>7000</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <f aca="false">(C6*500)+(D6*500)</f>
-        <v>7000</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <f aca="false">B6*500</f>
-        <v>7000</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <f aca="false">B6*200</f>
-        <v>2800</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <f aca="false">E6+F6+G6+H6+I6</f>
-        <v>23800</v>
-      </c>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <f aca="false">B7*500</f>
-        <v>5000</v>
-      </c>
-      <c r="F7" s="8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8" t="n">
         <f aca="false">(C7*500)+(D7*500)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H7" s="8" t="n">
         <f aca="false">B7*500</f>
-        <v>5000</v>
-      </c>
-      <c r="H7" s="8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <f aca="false">B7*200</f>
-        <v>2000</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <f aca="false">E7+F7+G7+H7+I7</f>
-        <v>12000</v>
+        <v>2800</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <f aca="false">E7+G7+H7+I7+J7</f>
+        <v>23800</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>10</v>
@@ -656,29 +650,30 @@
         <f aca="false">B8*500</f>
         <v>5000</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="n">
         <f aca="false">(C8*500)+(D8*500)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="H8" s="8" t="n">
         <f aca="false">B8*500</f>
         <v>5000</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="I8" s="8" t="n">
         <f aca="false">B8*200</f>
         <v>2000</v>
       </c>
-      <c r="J8" s="10" t="n">
-        <f aca="false">E8+F8+G8+H8+I8</f>
+      <c r="K8" s="10" t="n">
+        <f aca="false">E8+G8+H8+I8+J8</f>
         <v>12000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -688,22 +683,58 @@
       </c>
       <c r="E9" s="8" t="n">
         <f aca="false">B9*500</f>
+        <v>5000</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="n">
+        <f aca="false">(C9*500)+(D9*500)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">B9*500</f>
+        <v>5000</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <f aca="false">B9*200</f>
+        <v>2000</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <f aca="false">E9+G9+H9+I9+J9</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <f aca="false">B10*500</f>
         <v>10000</v>
       </c>
-      <c r="F9" s="8" t="n">
-        <f aca="false">(C9*500)+(D9*500)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <f aca="false">B9*500</f>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="n">
+        <f aca="false">(C10*500)+(D10*500)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">B10*500</f>
         <v>10000</v>
       </c>
-      <c r="H9" s="8" t="n">
-        <f aca="false">B9*200</f>
+      <c r="I10" s="8" t="n">
+        <f aca="false">B10*200</f>
         <v>4000</v>
       </c>
-      <c r="J9" s="10" t="n">
-        <f aca="false">E9+F9+G9+H9+I9</f>
+      <c r="K10" s="10" t="n">
+        <f aca="false">E10+G10+H10+I10+J10</f>
         <v>24000</v>
       </c>
     </row>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lord of the rings</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +241,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,14 +262,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,13 +342,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
@@ -443,28 +442,31 @@
         <f aca="false">B2*200</f>
         <v>2400</v>
       </c>
+      <c r="J2" s="8" t="n">
+        <v>1000</v>
+      </c>
       <c r="K2" s="6" t="n">
         <f aca="false">E2+G2+H2+I2+J2</f>
-        <v>21776</v>
+        <v>22776</v>
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">SUM(K2:K8)</f>
-        <v>117576</v>
+        <v>124272</v>
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">M2*0.015</f>
-        <v>1763.64</v>
+        <v>1864.08</v>
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">M2+N2</f>
-        <v>119339.64</v>
+        <v>126136.08</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>70500</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">P2-O2</f>
-        <v>-48839.64</v>
+        <v>-55636.08</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,17 +492,17 @@
       <c r="G3" s="6" t="n">
         <v>3500</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="9" t="n">
         <v>5000</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">B3*200</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="11" t="n">
         <f aca="false">E3+G3+H3+I3+J3</f>
         <v>17900</v>
       </c>
@@ -527,22 +529,25 @@
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="8" t="n">
+      <c r="F4" s="9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="9" t="n">
         <v>5000</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">B4*200</f>
         <v>2600</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="J4" s="8" t="n">
+        <v>5696</v>
+      </c>
+      <c r="K4" s="11" t="n">
         <f aca="false">E4+G4+H4+I4+J4</f>
-        <v>19100</v>
+        <v>24796</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -567,19 +572,19 @@
         <f aca="false">B5*500</f>
         <v>8000</v>
       </c>
-      <c r="F5" s="8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="8" t="n">
+      <c r="F5" s="9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="9" t="n">
         <v>5000</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="11" t="n">
         <f aca="false">E5+G5+H5+I5+J5</f>
         <v>23000</v>
       </c>
@@ -589,14 +594,8 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="K6" s="13"/>
+    <row r="6" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -615,12 +614,11 @@
         <f aca="false">B7*500</f>
         <v>7000</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="9" t="n">
         <f aca="false">(C7*500)+(D7*500)</f>
         <v>7000</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="9" t="n">
         <f aca="false">B7*500</f>
         <v>7000</v>
       </c>
@@ -628,7 +626,7 @@
         <f aca="false">B7*200</f>
         <v>2800</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="11" t="n">
         <f aca="false">E7+G7+H7+I7+J7</f>
         <v>23800</v>
       </c>
@@ -646,24 +644,24 @@
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <f aca="false">B8*500</f>
         <v>5000</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="n">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="n">
         <f aca="false">(C8*500)+(D8*500)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="9" t="n">
         <f aca="false">B8*500</f>
         <v>5000</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="9" t="n">
         <f aca="false">B8*200</f>
         <v>2000</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="11" t="n">
         <f aca="false">E8+G8+H8+I8+J8</f>
         <v>12000</v>
       </c>
@@ -681,24 +679,24 @@
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
         <f aca="false">B9*500</f>
         <v>5000</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="n">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="n">
         <f aca="false">(C9*500)+(D9*500)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="9" t="n">
         <f aca="false">B9*500</f>
         <v>5000</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="9" t="n">
         <f aca="false">B9*200</f>
         <v>2000</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="11" t="n">
         <f aca="false">E9+G9+H9+I9+J9</f>
         <v>12000</v>
       </c>
@@ -716,26 +714,48 @@
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="9" t="n">
         <f aca="false">B10*500</f>
         <v>10000</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="n">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="n">
         <f aca="false">(C10*500)+(D10*500)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="9" t="n">
         <f aca="false">B10*500</f>
         <v>10000</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="9" t="n">
         <f aca="false">B10*200</f>
         <v>4000</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="11" t="n">
         <f aca="false">E10+G10+H10+I10+J10</f>
         <v>24000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <f aca="false">B11*500</f>
+        <v>8000</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <f aca="false">B11*200</f>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Magnificent Century 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnificent Century 2</t>
   </si>
   <si>
     <t xml:space="preserve">Braveheart</t>
@@ -342,13 +345,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
@@ -671,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -681,7 +684,7 @@
       </c>
       <c r="E9" s="9" t="n">
         <f aca="false">B9*500</f>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="n">
@@ -690,23 +693,20 @@
       </c>
       <c r="H9" s="9" t="n">
         <f aca="false">B9*500</f>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="I9" s="9" t="n">
         <f aca="false">B9*200</f>
-        <v>2000</v>
-      </c>
-      <c r="K9" s="11" t="n">
-        <f aca="false">E9+G9+H9+I9+J9</f>
-        <v>12000</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="9" t="n">
         <f aca="false">B10*500</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="n">
@@ -725,15 +725,15 @@
       </c>
       <c r="H10" s="9" t="n">
         <f aca="false">B10*500</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="I10" s="9" t="n">
         <f aca="false">B10*200</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K10" s="11" t="n">
         <f aca="false">E10+G10+H10+I10+J10</f>
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,7 +741,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -751,10 +751,45 @@
       </c>
       <c r="E11" s="9" t="n">
         <f aca="false">B11*500</f>
-        <v>8000</v>
+        <v>10000</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="n">
+        <f aca="false">(C11*500)+(D11*500)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <f aca="false">B11*500</f>
+        <v>10000</v>
       </c>
       <c r="I11" s="9" t="n">
         <f aca="false">B11*200</f>
+        <v>4000</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <f aca="false">E11+G11+H11+I11+J11</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <f aca="false">B12*500</f>
+        <v>8000</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <f aca="false">B12*200</f>
         <v>3200</v>
       </c>
     </row>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lord of the rings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The god father</t>
   </si>
 </sst>
 </file>
@@ -345,13 +348,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
@@ -793,6 +796,28 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <f aca="false">B13*500</f>
+        <v>8500</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <f aca="false">B13*200</f>
+        <v>3400</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -351,12 +351,12 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
@@ -650,7 +650,7 @@
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="8" t="n">
         <f aca="false">B8*500</f>
         <v>5000</v>
       </c>
@@ -663,7 +663,7 @@
         <f aca="false">B8*500</f>
         <v>5000</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="8" t="n">
         <f aca="false">B8*200</f>
         <v>2000</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -351,10 +351,10 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
@@ -457,22 +457,22 @@
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">SUM(K2:K8)</f>
-        <v>124272</v>
+        <v>129272</v>
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">M2*0.015</f>
-        <v>1864.08</v>
+        <v>1939.08</v>
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">M2+N2</f>
-        <v>126136.08</v>
+        <v>131211.08</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>70500</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">P2-O2</f>
-        <v>-55636.08</v>
+        <v>-60711.08</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +496,7 @@
         <v>4000</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="H3" s="9" t="n">
         <v>5000</v>
@@ -510,7 +510,7 @@
       </c>
       <c r="K3" s="11" t="n">
         <f aca="false">E3+G3+H3+I3+J3</f>
-        <v>17900</v>
+        <v>22900</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -538,7 +538,7 @@
       <c r="F4" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="H4" s="9" t="n">
@@ -581,7 +581,7 @@
       <c r="F5" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="H5" s="9" t="n">

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -351,10 +351,10 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
@@ -717,7 +717,7 @@
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="8" t="n">
         <f aca="false">B10*500</f>
         <v>5000</v>
       </c>
@@ -730,7 +730,7 @@
         <f aca="false">B10*500</f>
         <v>5000</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="8" t="n">
         <f aca="false">B10*200</f>
         <v>2000</v>
       </c>
@@ -809,11 +809,11 @@
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="8" t="n">
         <f aca="false">B13*500</f>
         <v>8500</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="8" t="n">
         <f aca="false">B13*200</f>
         <v>3400</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -214,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,10 +251,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,6 +264,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,10 +355,10 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
@@ -457,22 +461,22 @@
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">SUM(K2:K8)</f>
-        <v>129272</v>
+        <v>110272</v>
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">M2*0.015</f>
-        <v>1939.08</v>
+        <v>1654.08</v>
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">M2+N2</f>
-        <v>131211.08</v>
+        <v>111926.08</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>70500</v>
       </c>
       <c r="Q2" s="0" t="n">
         <f aca="false">P2-O2</f>
-        <v>-60711.08</v>
+        <v>-41426.08</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,17 +502,17 @@
       <c r="G3" s="6" t="n">
         <v>8500</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">B3*200</f>
         <v>2400</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="K3" s="10" t="n">
         <f aca="false">E3+G3+H3+I3+J3</f>
         <v>22900</v>
       </c>
@@ -535,13 +539,13 @@
         <f aca="false">B4*500</f>
         <v>6500</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>5000</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="I4" s="6" t="n">
@@ -551,7 +555,7 @@
       <c r="J4" s="8" t="n">
         <v>5696</v>
       </c>
-      <c r="K4" s="11" t="n">
+      <c r="K4" s="10" t="n">
         <f aca="false">E4+G4+H4+I4+J4</f>
         <v>24796</v>
       </c>
@@ -578,19 +582,19 @@
         <f aca="false">B5*500</f>
         <v>8000</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="G5" s="8" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="8" t="n">
         <v>5000</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="10" t="n">
         <f aca="false">E5+G5+H5+I5+J5</f>
         <v>23000</v>
       </c>
@@ -600,8 +604,8 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
+    <row r="6" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -620,21 +624,16 @@
         <f aca="false">B7*500</f>
         <v>7000</v>
       </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">(C7*500)+(D7*500)</f>
-        <v>7000</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <f aca="false">B7*500</f>
-        <v>7000</v>
-      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="6" t="n">
         <f aca="false">B7*200</f>
         <v>2800</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="10" t="n">
         <f aca="false">E7+G7+H7+I7+J7</f>
-        <v>23800</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,22 +653,16 @@
         <f aca="false">B8*500</f>
         <v>5000</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="n">
-        <f aca="false">(C8*500)+(D8*500)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <f aca="false">B8*500</f>
-        <v>5000</v>
-      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="8" t="n">
         <f aca="false">B8*200</f>
         <v>2000</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="10" t="n">
         <f aca="false">E8+G8+H8+I8+J8</f>
-        <v>12000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,24 +678,18 @@
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="14" t="n">
         <f aca="false">B9*500</f>
         <v>4000</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="n">
-        <f aca="false">(C9*500)+(D9*500)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <f aca="false">B9*500</f>
-        <v>4000</v>
-      </c>
-      <c r="I9" s="9" t="n">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14" t="n">
         <f aca="false">B9*200</f>
         <v>1600</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -721,22 +708,16 @@
         <f aca="false">B10*500</f>
         <v>5000</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="n">
-        <f aca="false">(C10*500)+(D10*500)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <f aca="false">B10*500</f>
-        <v>5000</v>
-      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="8" t="n">
         <f aca="false">B10*200</f>
         <v>2000</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="10" t="n">
         <f aca="false">E10+G10+H10+I10+J10</f>
-        <v>12000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,26 +733,20 @@
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="14" t="n">
         <f aca="false">B11*500</f>
         <v>10000</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="n">
-        <f aca="false">(C11*500)+(D11*500)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <f aca="false">B11*500</f>
-        <v>10000</v>
-      </c>
-      <c r="I11" s="9" t="n">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="n">
         <f aca="false">B11*200</f>
         <v>4000</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="10" t="n">
         <f aca="false">E11+G11+H11+I11+J11</f>
-        <v>24000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,11 +762,14 @@
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="14" t="n">
         <f aca="false">B12*500</f>
         <v>8000</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="n">
         <f aca="false">B12*200</f>
         <v>3200</v>
       </c>
